--- a/notebooks/test_output/incremental_shap_20hz.xlsx
+++ b/notebooks/test_output/incremental_shap_20hz.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9125</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="6">
@@ -519,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-06 15:19:08</t>
+          <t>2025-10-07 07:56:53</t>
         </is>
       </c>
     </row>
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.746875</v>
+        <v>0.76875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0318688719599549</v>
+        <v>0.03617449032121946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
       <c r="E2" t="n">
         <v>0.703125</v>
@@ -609,19 +609,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.759375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0318688719599549</v>
+        <v>0.05096720759468779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.671875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05312500000000009</v>
+        <v>-0.009375000000000022</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -634,19 +634,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7875</v>
+        <v>0.7625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02898005779842407</v>
+        <v>0.04980430453284133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.671875</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01250000000000007</v>
+        <v>0.003124999999999933</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -659,19 +659,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.759375</v>
+        <v>0.771875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04026280852101602</v>
+        <v>0.04697905118241533</v>
       </c>
       <c r="D5" t="n">
         <v>0.828125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02812499999999996</v>
+        <v>0.009375000000000022</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -684,19 +684,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.74375</v>
+        <v>0.784375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555121510822243</v>
+        <v>0.04352621336620037</v>
       </c>
       <c r="D6" t="n">
         <v>0.828125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.671875</v>
+        <v>0.703125</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.015625</v>
+        <v>0.01250000000000007</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.753125</v>
+        <v>0.78125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04352621336620037</v>
+        <v>0.0369754986443726</v>
       </c>
       <c r="D7" t="n">
-        <v>0.796875</v>
+        <v>0.828125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.671875</v>
+        <v>0.71875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.003125000000000044</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -734,19 +734,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.75625</v>
+        <v>0.76875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06296700524878089</v>
+        <v>0.04571480886977436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003124999999999933</v>
+        <v>-0.01249999999999996</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -759,23 +759,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.88125</v>
+        <v>0.796875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04901370981674413</v>
+        <v>0.05321683239352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.796875</v>
+        <v>0.703125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.125</v>
+        <v>0.02812499999999996</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
     </row>
@@ -784,23 +784,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9125</v>
+        <v>0.8375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03217384419058437</v>
+        <v>0.06296700524878089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.953125</v>
+        <v>0.890625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03125</v>
+        <v>0.04062500000000002</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8875</v>
+        <v>0.821875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04001952648395531</v>
+        <v>0.03644344934278313</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="E11" t="n">
-        <v>0.828125</v>
+        <v>0.75</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.015625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
     </row>
@@ -834,23 +834,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.896875</v>
+        <v>0.809375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02898005779842408</v>
+        <v>0.05358258812338201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.859375</v>
+        <v>0.703125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.01250000000000007</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -859,23 +859,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03903123748998999</v>
+        <v>0.05537514108334172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003125000000000044</v>
+        <v>0.015625</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
     </row>
@@ -884,23 +884,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.896875</v>
+        <v>0.796875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0480071609241788</v>
+        <v>0.0369754986443726</v>
       </c>
       <c r="D14" t="n">
-        <v>0.96875</v>
+        <v>0.84375</v>
       </c>
       <c r="E14" t="n">
-        <v>0.84375</v>
+        <v>0.734375</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.003125000000000044</v>
+        <v>-0.02812499999999996</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
     </row>
@@ -909,23 +909,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8875</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03878023014372142</v>
+        <v>0.06510208329999893</v>
       </c>
       <c r="D15" t="n">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.84375</v>
+        <v>0.703125</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009375000000000022</v>
+        <v>0.003125000000000044</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
     </row>
@@ -934,23 +934,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.896875</v>
+        <v>0.796875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03217384419058437</v>
+        <v>0.04419417382415922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.003125000000000044</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
     </row>
@@ -959,23 +959,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.89375</v>
+        <v>0.7875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03336586953759785</v>
+        <v>0.04592793267718459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.953125</v>
+        <v>0.828125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.859375</v>
+        <v>0.703125</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.003124999999999933</v>
+        <v>-0.009375000000000022</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
     </row>
@@ -984,23 +984,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.89375</v>
+        <v>0.796875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03878023014372143</v>
+        <v>0.05134898976610933</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
       <c r="E18" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.009375000000000022</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
     </row>
@@ -1009,23 +1009,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8875</v>
+        <v>0.7875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04463392767839281</v>
+        <v>0.05284854539152426</v>
       </c>
       <c r="D19" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
       <c r="E19" t="n">
-        <v>0.828125</v>
+        <v>0.703125</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.006250000000000089</v>
+        <v>-0.009375000000000022</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
     </row>
@@ -1034,23 +1034,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04375</v>
+        <v>0.04122158111960288</v>
       </c>
       <c r="D20" t="n">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
       <c r="E20" t="n">
-        <v>0.859375</v>
+        <v>0.75</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01250000000000007</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -1059,23 +1059,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.90625</v>
+        <v>0.809375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0550213026926844</v>
+        <v>0.04677071733467426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.96875</v>
+        <v>0.84375</v>
       </c>
       <c r="E21" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006249999999999978</v>
+        <v>-0.015625</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -1084,19 +1084,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.89375</v>
+        <v>0.8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04571480886977436</v>
+        <v>0.04463392767839281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.953125</v>
+        <v>0.859375</v>
       </c>
       <c r="E22" t="n">
-        <v>0.828125</v>
+        <v>0.734375</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01249999999999996</v>
+        <v>-0.009374999999999911</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.884375</v>
+        <v>0.809375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0350780380010057</v>
+        <v>0.05711145900780333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.921875</v>
+        <v>0.859375</v>
       </c>
       <c r="E23" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009375000000000022</v>
+        <v>0.009374999999999911</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -1134,23 +1134,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.884375</v>
+        <v>0.79375</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04901370981674413</v>
+        <v>0.04122158111960288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.953125</v>
+        <v>0.828125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0.015625</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
     </row>
@@ -1159,23 +1159,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05229125165837972</v>
+        <v>0.04739297152532219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
       <c r="E25" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009375000000000022</v>
+        <v>0.01875000000000004</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
     </row>
@@ -1184,23 +1184,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.88125</v>
+        <v>0.803125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06373774391990981</v>
+        <v>0.03644344934278313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.796875</v>
+        <v>0.734375</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006249999999999978</v>
+        <v>-0.009375000000000022</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -1209,23 +1209,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.896875</v>
+        <v>0.80625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03775951866748304</v>
+        <v>0.03061862178478972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
       <c r="E27" t="n">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
       <c r="F27" t="n">
-        <v>0.015625</v>
+        <v>0.003125000000000044</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
     </row>
@@ -1234,23 +1234,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.896875</v>
+        <v>0.796875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03061862178478973</v>
+        <v>0.03563048203434806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9375</v>
+        <v>0.828125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.84375</v>
+        <v>0.734375</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-0.009375000000000022</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
     </row>
@@ -1259,23 +1259,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9</v>
+        <v>0.803125</v>
       </c>
       <c r="C29" t="n">
         <v>0.0426193178030808</v>
       </c>
       <c r="D29" t="n">
-        <v>0.96875</v>
+        <v>0.859375</v>
       </c>
       <c r="E29" t="n">
-        <v>0.84375</v>
+        <v>0.734375</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003125000000000044</v>
+        <v>0.006249999999999978</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_peak_power_mean</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
         </is>
       </c>
     </row>
@@ -1284,23 +1284,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.890625</v>
+        <v>0.803125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03827327723098715</v>
+        <v>0.03775951866748304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
       <c r="E30" t="n">
-        <v>0.828125</v>
+        <v>0.734375</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.009375000000000022</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_range</t>
+          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
         </is>
       </c>
     </row>
@@ -1309,23 +1309,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.896875</v>
+        <v>0.784375</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03775951866748304</v>
+        <v>0.03186887195995491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9375</v>
+        <v>0.828125</v>
       </c>
       <c r="E31" t="n">
-        <v>0.828125</v>
+        <v>0.734375</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006249999999999978</v>
+        <v>-0.01874999999999993</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_variance</t>
+          <t>current_phase_a_spectral_flatness</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.765625</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="3">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.734375</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="4">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="5">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.703125</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="6">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="7">
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.84375</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="8">
@@ -1439,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8125</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="10">
@@ -1461,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="11">
@@ -1472,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="12">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.828125</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="13">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="15">
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.78125</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="16">
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="17">
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="18">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.78125</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="19">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.71875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="20">
@@ -1571,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.734375</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="21">
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.734375</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="22">
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.78125</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="23">
@@ -1604,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="24">
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.703125</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="25">
@@ -1626,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.671875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="26">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.734375</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="27">
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="28">
@@ -1659,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.78125</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="29">
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="30">
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.671875</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="31">
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.765625</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="32">
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="33">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35">
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.65625</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="36">
@@ -1747,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.765625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="37">
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9375</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="38">
@@ -1769,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.921875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="39">
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.875</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="40">
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="41">
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="42">
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.953125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="43">
@@ -1824,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
     </row>
     <row r="44">
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45">
@@ -1846,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="46">
@@ -1857,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.921875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="48">
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="49">
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="50">
@@ -1912,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="52">
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9375</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="53">
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="54">
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.921875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="55">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="56">
@@ -1967,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="57">
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="58">
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="59">
@@ -2000,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.953125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60">
@@ -2022,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="62">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9375</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="63">
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.859375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="64">
@@ -2055,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.96875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="65">
@@ -2077,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="67">
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.90625</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="68">
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="69">
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.953125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70">
@@ -2121,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="71">
@@ -2132,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.90625</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="73">
@@ -2154,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="74">
@@ -2165,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.953125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="75">
@@ -2176,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.859375</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="76">
@@ -2187,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="77">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.90625</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="78">
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.875</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="79">
@@ -2220,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.953125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="80">
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="81">
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="82">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="83">
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.859375</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="84">
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9375</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="85">
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.890625</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="87">
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.921875</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="88">
@@ -2319,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0.859375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="89">
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.953125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90">
@@ -2341,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.828125</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="91">
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="92">
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.953125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="93">
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="94">
@@ -2385,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.953125</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="95">
@@ -2396,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.859375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="96">
@@ -2407,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97">
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.96875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="98">
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="99">
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.96875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="100">
@@ -2462,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="102">
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.953125</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="103">
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="104">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9375</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="105">
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.875</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="107">
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.921875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="108">
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.875</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="109">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.921875</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="110">
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.828125</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="111">
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.875</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="112">
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.953125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="113">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.859375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="114">
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.921875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="115">
@@ -2616,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8125</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="116">
@@ -2627,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="117">
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.953125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="118">
@@ -2649,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="119">
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="120">
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.796875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="121">
@@ -2682,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.890625</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="122">
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.953125</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="123">
@@ -2704,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="124">
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>0.953125</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="125">
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.796875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="126">
@@ -2737,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="127">
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.953125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="128">
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="129">
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.921875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="130">
@@ -2792,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.890625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="132">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9375</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="133">
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>0.890625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="134">
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.90625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="135">
@@ -2836,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.84375</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="136">
@@ -2847,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.90625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="137">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.96875</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="138">
@@ -2869,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="139">
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.921875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="140">
@@ -2891,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.84375</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="141">
@@ -2902,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.890625</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="142">
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9375</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="143">
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.875</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="144">
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.921875</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="145">
@@ -2957,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.890625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="147">
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.921875</v>
+        <v>0.734375</v>
       </c>
     </row>
     <row r="148">
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>0.890625</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="149">
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9375</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="150">
@@ -3012,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.90625</v>
+        <v>0.796875</v>
       </c>
     </row>
   </sheetData>
@@ -3173,14 +3173,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
     </row>
@@ -3189,14 +3189,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
     </row>
@@ -3205,14 +3205,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
     </row>
@@ -3221,14 +3221,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -3237,14 +3237,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
     </row>
@@ -3253,14 +3253,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3269,14 +3269,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
     </row>
@@ -3285,14 +3285,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
     </row>
@@ -3301,14 +3301,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
     </row>
@@ -3317,14 +3317,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
     </row>
@@ -3333,14 +3333,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
     </row>
@@ -3349,14 +3349,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -3365,14 +3365,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -3397,14 +3397,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3413,14 +3413,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
     </row>
@@ -3429,14 +3429,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3445,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3461,14 +3461,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
     </row>
@@ -3477,14 +3477,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
     </row>
@@ -3493,14 +3493,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_peak_power_mean</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
         </is>
       </c>
     </row>
@@ -3509,14 +3509,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_range</t>
+          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
         </is>
       </c>
     </row>
@@ -3525,14 +3525,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_variance</t>
+          <t>current_phase_a_spectral_flatness</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4990179335399322</v>
+        <v>0.5154053982107329</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5009820664600678</v>
+        <v>0.4845946017892671</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3323307551300088</v>
+        <v>0.3411878151677104</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3619020792679799</v>
+        <v>0.3587706048145981</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3057671656020113</v>
+        <v>0.3000415800176916</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3057819002026864</v>
+        <v>0.3046339069440394</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3701120327209702</v>
+        <v>0.3480629777711592</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2512896844332262</v>
+        <v>0.2790132326579255</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.07281638264311717</v>
+        <v>0.06828988262687578</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2508095148839041</v>
+        <v>0.2707790777127548</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3119654077615312</v>
+        <v>0.3075078949778011</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2667693156539531</v>
+        <v>0.2589291796008528</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.05607344573382334</v>
+        <v>0.05902774874261017</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1143823159667883</v>
+        <v>0.1037560989659812</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2722812070396335</v>
+        <v>0.2615726134148517</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2544888856189992</v>
+        <v>0.2520328113013134</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1964294290638245</v>
+        <v>0.2135395282447229</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0761498183619795</v>
+        <v>0.06286007596478649</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1276870211927028</v>
+        <v>0.129245537950433</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07296363872286045</v>
+        <v>0.08074943312389275</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2407621827619689</v>
+        <v>0.2603151482246709</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2366387359983133</v>
+        <v>0.2286543771265781</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1906048141085538</v>
+        <v>0.1804055103219987</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.06305551394952254</v>
+        <v>0.0699165083450775</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1496278240489774</v>
+        <v>0.1316501684090026</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.08775305102059613</v>
+        <v>0.09364890362707028</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.03155787811206794</v>
+        <v>0.03540938394560205</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1721110481750192</v>
+        <v>0.1807916161043587</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2570116529256289</v>
+        <v>0.2597498372288546</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1745248996528333</v>
+        <v>0.2035668359333112</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.05228505036965093</v>
+        <v>0.06102151512467548</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.120888375224068</v>
+        <v>0.1170559270388372</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.08451504414660223</v>
+        <v>0.08896613991075199</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.02950350719843663</v>
+        <v>0.03151388778963501</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -4252,15 +4252,15 @@
         <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1091604223077608</v>
+        <v>0.05733424086957586</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1868758510703041</v>
+        <v>0.2130832479126914</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.2489821925260337</v>
+        <v>0.2670089787959283</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1983064806352234</v>
+        <v>0.20632241907732</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0397589507958247</v>
+        <v>0.05238161202065202</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07894707951298707</v>
+        <v>0.0713672152771196</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.04521211753102748</v>
+        <v>0.06338326519842433</v>
       </c>
       <c r="E43" t="n">
         <v>6</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0166405529042559</v>
+        <v>0.02294010994616674</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -4404,15 +4404,15 @@
         <v>9</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.1283559030507741</v>
+        <v>0.05234260859261694</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -4423,15 +4423,15 @@
         <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.05692087197356975</v>
+        <v>0.05117054317908072</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.2210633546606484</v>
+        <v>0.2409698091020569</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.2012318988707157</v>
+        <v>0.2082558749316034</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.1713882322859677</v>
+        <v>0.1928416113890291</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.03882262126212211</v>
+        <v>0.04372471537159093</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1001855233851433</v>
+        <v>0.1069960342988282</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.05414160730681172</v>
+        <v>0.06212910962367015</v>
       </c>
       <c r="E52" t="n">
         <v>6</v>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02031826476502279</v>
+        <v>0.02484688280559975</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4575,15 +4575,15 @@
         <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.09482671981851327</v>
+        <v>0.04957002698780183</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4594,15 +4594,15 @@
         <v>10</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03900502094980148</v>
+        <v>0.04498576311779266</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4613,15 +4613,15 @@
         <v>10</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.05901675669525343</v>
+        <v>0.0256801723720271</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.1412575651551334</v>
+        <v>0.1749932251702107</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.1757682197111144</v>
+        <v>0.1790298506628713</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1754729545835771</v>
+        <v>0.202265550584921</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.07987926841813778</v>
+        <v>0.08572687231938818</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1285932803921646</v>
+        <v>0.1127822355527829</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.06187135496242775</v>
+        <v>0.0747147502690117</v>
       </c>
       <c r="E62" t="n">
         <v>6</v>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.02683038118125877</v>
+        <v>0.0304656476599033</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -4765,15 +4765,15 @@
         <v>11</v>
       </c>
       <c r="B64" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.09628240962183339</v>
+        <v>0.04690817563598876</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4784,15 +4784,15 @@
         <v>11</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.03324497311736853</v>
+        <v>0.04941257090302851</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -4803,15 +4803,15 @@
         <v>11</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.05248342424654129</v>
+        <v>0.0205364051060727</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -4822,15 +4822,15 @@
         <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.02831616861044297</v>
+        <v>0.02316471613582073</v>
       </c>
       <c r="E67" t="n">
         <v>11</v>
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1874255837539221</v>
+        <v>0.191139026115531</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2084383856307794</v>
+        <v>0.2187995076537649</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1676230178935584</v>
+        <v>0.1811700870301214</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.04742323170278623</v>
+        <v>0.05701929906618076</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.08713717150284962</v>
+        <v>0.1029258333492118</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.06034578145649668</v>
+        <v>0.07184509830235729</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.02013915617853183</v>
+        <v>0.03024260306092212</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -4974,15 +4974,15 @@
         <v>12</v>
       </c>
       <c r="B75" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.09693409547795649</v>
+        <v>0.03793332724318774</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -4993,15 +4993,15 @@
         <v>12</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.03774913794645601</v>
+        <v>0.04891979111505654</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -5012,15 +5012,15 @@
         <v>12</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.04108094215549741</v>
+        <v>0.02123681420832819</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -5031,15 +5031,15 @@
         <v>12</v>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.02573710936107197</v>
+        <v>0.02092816746975551</v>
       </c>
       <c r="E78" t="n">
         <v>11</v>
@@ -5050,15 +5050,15 @@
         <v>12</v>
       </c>
       <c r="B79" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.01996638694009404</v>
+        <v>0.01784044538558285</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.1530397332841477</v>
+        <v>0.1687744519389372</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.1846903181569616</v>
+        <v>0.1711736035663843</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.1643017967043267</v>
+        <v>0.1935823086928136</v>
       </c>
       <c r="E82" t="n">
         <v>3</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.07312724526015044</v>
+        <v>0.07775046493827494</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.09516530697857406</v>
+        <v>0.1072864930593914</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.07569620879902282</v>
+        <v>0.08168408993343708</v>
       </c>
       <c r="E85" t="n">
         <v>6</v>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.02786730769364502</v>
+        <v>0.03069630993156471</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -5202,15 +5202,15 @@
         <v>13</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.09263928334068547</v>
+        <v>0.04215629712685756</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -5221,15 +5221,15 @@
         <v>13</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.03412068932196725</v>
+        <v>0.03817830988093626</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -5240,15 +5240,15 @@
         <v>13</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.03892461064943139</v>
+        <v>0.01906616652275765</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -5259,15 +5259,15 @@
         <v>13</v>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.0234781505824652</v>
+        <v>0.02152920533086705</v>
       </c>
       <c r="E90" t="n">
         <v>11</v>
@@ -5278,15 +5278,15 @@
         <v>13</v>
       </c>
       <c r="B91" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.01916564607430848</v>
+        <v>0.02185197003891747</v>
       </c>
       <c r="E91" t="n">
         <v>12</v>
@@ -5297,15 +5297,15 @@
         <v>13</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.01778370315431386</v>
+        <v>0.02627032903886085</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.1799097025619773</v>
+        <v>0.1833329118404549</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.1901436777520655</v>
+        <v>0.1983786788651506</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1443244645362688</v>
+        <v>0.1626446752345895</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.06542588929847679</v>
+        <v>0.06728826050543807</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.08593064167948987</v>
+        <v>0.09391119434636437</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.07248318450492912</v>
+        <v>0.07679855544128784</v>
       </c>
       <c r="E98" t="n">
         <v>6</v>
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.03179101659387092</v>
+        <v>0.03567030514816136</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -5449,15 +5449,15 @@
         <v>14</v>
       </c>
       <c r="B100" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.07641294557373604</v>
+        <v>0.0359360726829489</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -5468,15 +5468,15 @@
         <v>14</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.03076466642715395</v>
+        <v>0.03862098642498596</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -5487,15 +5487,15 @@
         <v>14</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.03971076915523183</v>
+        <v>0.02030610847386295</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -5506,15 +5506,15 @@
         <v>14</v>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.02409461286616931</v>
+        <v>0.02064817329858306</v>
       </c>
       <c r="E103" t="n">
         <v>11</v>
@@ -5525,15 +5525,15 @@
         <v>14</v>
       </c>
       <c r="B104" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.02399846461960912</v>
+        <v>0.02063110747708847</v>
       </c>
       <c r="E104" t="n">
         <v>12</v>
@@ -5544,15 +5544,15 @@
         <v>14</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.01913864010883101</v>
+        <v>0.02298826377506969</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -5563,15 +5563,15 @@
         <v>14</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.01587132432219056</v>
+        <v>0.02284470648601434</v>
       </c>
       <c r="E106" t="n">
         <v>14</v>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1311733350605798</v>
+        <v>0.1469184921404133</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.1980513296436466</v>
+        <v>0.19464918951498</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.1693514979670686</v>
+        <v>0.1692884269890764</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.08303556688509668</v>
+        <v>0.07856086254382158</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.08526387041060944</v>
+        <v>0.1094986032290736</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.07096181733430086</v>
+        <v>0.07304981633580961</v>
       </c>
       <c r="E112" t="n">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.02374305412180676</v>
+        <v>0.0304465151832995</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -5715,15 +5715,15 @@
         <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.07588575411371831</v>
+        <v>0.03463740537527984</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -5734,15 +5734,15 @@
         <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.03115221970516288</v>
+        <v>0.03269733001796343</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -5753,15 +5753,15 @@
         <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.03513281078376229</v>
+        <v>0.01458389039524392</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -5772,15 +5772,15 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.02763348622961961</v>
+        <v>0.02153959395099384</v>
       </c>
       <c r="E117" t="n">
         <v>11</v>
@@ -5791,15 +5791,15 @@
         <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.02175134130038594</v>
+        <v>0.01939805502532163</v>
       </c>
       <c r="E118" t="n">
         <v>12</v>
@@ -5810,15 +5810,15 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.01576885000804031</v>
+        <v>0.02461459580754205</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -5829,15 +5829,15 @@
         <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.01208051044128557</v>
+        <v>0.02561226262670109</v>
       </c>
       <c r="E120" t="n">
         <v>14</v>
@@ -5848,15 +5848,15 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.01901455599491644</v>
+        <v>0.02450496086448043</v>
       </c>
       <c r="E121" t="n">
         <v>15</v>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.144778798084207</v>
+        <v>0.1649628393760136</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.2219126695005091</v>
+        <v>0.2296343936525214</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1770916413545194</v>
+        <v>0.1696241572548345</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.06130690365289619</v>
+        <v>0.07017630324987044</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.07776725361670897</v>
+        <v>0.08193122199743756</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.05137460642586317</v>
+        <v>0.06490471085024574</v>
       </c>
       <c r="E127" t="n">
         <v>6</v>
@@ -5989,7 +5989,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.02295066352828431</v>
+        <v>0.02827105060661912</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -6000,15 +6000,15 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.08009061389060752</v>
+        <v>0.03344918684154185</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -6019,15 +6019,15 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.02720729297351388</v>
+        <v>0.03532489052129176</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -6038,15 +6038,15 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.04524075978860593</v>
+        <v>0.01655001578924894</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -6057,15 +6057,15 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.01974467894361244</v>
+        <v>0.01591382372866025</v>
       </c>
       <c r="E132" t="n">
         <v>11</v>
@@ -6076,15 +6076,15 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.01371530673590772</v>
+        <v>0.0121944860103674</v>
       </c>
       <c r="E133" t="n">
         <v>12</v>
@@ -6095,15 +6095,15 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.01616099222297129</v>
+        <v>0.01751866806787017</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -6114,15 +6114,15 @@
         <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.01248446122936515</v>
+        <v>0.02518558197617307</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -6133,15 +6133,15 @@
         <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.01905567998547744</v>
+        <v>0.01967738590847444</v>
       </c>
       <c r="E136" t="n">
         <v>15</v>
@@ -6152,15 +6152,15 @@
         <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.009117678066950628</v>
+        <v>0.01468128416882981</v>
       </c>
       <c r="E137" t="n">
         <v>16</v>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1548667072332875</v>
+        <v>0.1609810091507176</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.199796952673229</v>
+        <v>0.203446685748276</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.1835527559255949</v>
+        <v>0.202708377047742</v>
       </c>
       <c r="E140" t="n">
         <v>3</v>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.05722812896949505</v>
+        <v>0.05827094357855718</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.09661523919402711</v>
+        <v>0.1030682979853081</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.03798647133728089</v>
+        <v>0.03857954914809036</v>
       </c>
       <c r="E143" t="n">
         <v>6</v>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.02050047243195979</v>
+        <v>0.02258406530976509</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -6304,15 +6304,15 @@
         <v>17</v>
       </c>
       <c r="B145" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.07851274404448343</v>
+        <v>0.03146814440911694</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -6323,15 +6323,15 @@
         <v>17</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.03351530627911104</v>
+        <v>0.03905065491730694</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -6342,15 +6342,15 @@
         <v>17</v>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.04156225529908392</v>
+        <v>0.0157124622867993</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -6361,15 +6361,15 @@
         <v>17</v>
       </c>
       <c r="B148" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.02004984303880347</v>
+        <v>0.01511718691307029</v>
       </c>
       <c r="E148" t="n">
         <v>11</v>
@@ -6380,15 +6380,15 @@
         <v>17</v>
       </c>
       <c r="B149" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.01328581106404852</v>
+        <v>0.01659824401959443</v>
       </c>
       <c r="E149" t="n">
         <v>12</v>
@@ -6399,15 +6399,15 @@
         <v>17</v>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.01483792456811081</v>
+        <v>0.0190033197214257</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -6418,15 +6418,15 @@
         <v>17</v>
       </c>
       <c r="B151" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.01001685622181151</v>
+        <v>0.02174390489199952</v>
       </c>
       <c r="E151" t="n">
         <v>14</v>
@@ -6437,15 +6437,15 @@
         <v>17</v>
       </c>
       <c r="B152" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.01552608747221541</v>
+        <v>0.01866455468346533</v>
       </c>
       <c r="E152" t="n">
         <v>15</v>
@@ -6456,15 +6456,15 @@
         <v>17</v>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.009175547398925128</v>
+        <v>0.01082221875747286</v>
       </c>
       <c r="E153" t="n">
         <v>16</v>
@@ -6475,15 +6475,15 @@
         <v>17</v>
       </c>
       <c r="B154" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.01297089684853251</v>
+        <v>0.02218038143129217</v>
       </c>
       <c r="E154" t="n">
         <v>17</v>
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.1830784431439748</v>
+        <v>0.1845567686124359</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.1486939187642692</v>
+        <v>0.1628089410578014</v>
       </c>
       <c r="E156" t="n">
         <v>2</v>
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.1630861601537676</v>
+        <v>0.1736472783554419</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.06099836266852685</v>
+        <v>0.07438516929552437</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.09036816236624069</v>
+        <v>0.08931732224144144</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.08305620961299745</v>
+        <v>0.09079738603722981</v>
       </c>
       <c r="E160" t="n">
         <v>6</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.02445274612830182</v>
+        <v>0.01806340426852836</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -6627,15 +6627,15 @@
         <v>18</v>
       </c>
       <c r="B162" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.06648134897411423</v>
+        <v>0.02897890345493177</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -6646,15 +6646,15 @@
         <v>18</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.03173390428923509</v>
+        <v>0.03130473922493861</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -6665,15 +6665,15 @@
         <v>18</v>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.03700205004937596</v>
+        <v>0.01332108574593628</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -6684,15 +6684,15 @@
         <v>18</v>
       </c>
       <c r="B165" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.02045225931814205</v>
+        <v>0.01797969704736249</v>
       </c>
       <c r="E165" t="n">
         <v>11</v>
@@ -6703,15 +6703,15 @@
         <v>18</v>
       </c>
       <c r="B166" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.01422442449397394</v>
+        <v>0.01706593387490594</v>
       </c>
       <c r="E166" t="n">
         <v>12</v>
@@ -6722,15 +6722,15 @@
         <v>18</v>
       </c>
       <c r="B167" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.01410140745215145</v>
+        <v>0.01724871386139935</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -6741,15 +6741,15 @@
         <v>18</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.01164028775116861</v>
+        <v>0.01888885085328109</v>
       </c>
       <c r="E168" t="n">
         <v>14</v>
@@ -6760,15 +6760,15 @@
         <v>18</v>
       </c>
       <c r="B169" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.01296323648762646</v>
+        <v>0.01781334275328844</v>
       </c>
       <c r="E169" t="n">
         <v>15</v>
@@ -6779,15 +6779,15 @@
         <v>18</v>
       </c>
       <c r="B170" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.009834695084789437</v>
+        <v>0.01197944179887837</v>
       </c>
       <c r="E170" t="n">
         <v>16</v>
@@ -6798,15 +6798,15 @@
         <v>18</v>
       </c>
       <c r="B171" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.01162694030388064</v>
+        <v>0.01801411881387279</v>
       </c>
       <c r="E171" t="n">
         <v>17</v>
@@ -6817,15 +6817,15 @@
         <v>18</v>
       </c>
       <c r="B172" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.01620544295746381</v>
+        <v>0.01382890270280155</v>
       </c>
       <c r="E172" t="n">
         <v>18</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.1510898145933036</v>
+        <v>0.1655874824874596</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.173839623428913</v>
+        <v>0.1711118819915383</v>
       </c>
       <c r="E174" t="n">
         <v>2</v>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.1705405470415586</v>
+        <v>0.2007042558539494</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.06197320187853084</v>
+        <v>0.04649112028793623</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.0806544908525096</v>
+        <v>0.08355002460099061</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -6939,7 +6939,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.08292792291664292</v>
+        <v>0.07964945471136681</v>
       </c>
       <c r="E178" t="n">
         <v>6</v>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.02591396881890209</v>
+        <v>0.02657849708757138</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -6969,15 +6969,15 @@
         <v>19</v>
       </c>
       <c r="B180" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.06988633931924089</v>
+        <v>0.02925396767709715</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -6988,15 +6988,15 @@
         <v>19</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.03188033730556814</v>
+        <v>0.03282706774702309</v>
       </c>
       <c r="E181" t="n">
         <v>9</v>
@@ -7007,15 +7007,15 @@
         <v>19</v>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.03421095092470423</v>
+        <v>0.01264611428232443</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -7026,15 +7026,15 @@
         <v>19</v>
       </c>
       <c r="B183" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.01713216537854663</v>
+        <v>0.01601160429269314</v>
       </c>
       <c r="E183" t="n">
         <v>11</v>
@@ -7045,15 +7045,15 @@
         <v>19</v>
       </c>
       <c r="B184" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.01831367984646716</v>
+        <v>0.01500116779848901</v>
       </c>
       <c r="E184" t="n">
         <v>12</v>
@@ -7064,15 +7064,15 @@
         <v>19</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.01311243046107351</v>
+        <v>0.01741399100271703</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -7083,15 +7083,15 @@
         <v>19</v>
       </c>
       <c r="B186" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.01082134125754378</v>
+        <v>0.02029623681430693</v>
       </c>
       <c r="E186" t="n">
         <v>14</v>
@@ -7102,15 +7102,15 @@
         <v>19</v>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.01295161299425292</v>
+        <v>0.01674344632031525</v>
       </c>
       <c r="E187" t="n">
         <v>15</v>
@@ -7121,15 +7121,15 @@
         <v>19</v>
       </c>
       <c r="B188" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.01008966103032198</v>
+        <v>0.01224796612558024</v>
       </c>
       <c r="E188" t="n">
         <v>16</v>
@@ -7140,15 +7140,15 @@
         <v>19</v>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.01164964206311218</v>
+        <v>0.01897305309473925</v>
       </c>
       <c r="E189" t="n">
         <v>17</v>
@@ -7159,15 +7159,15 @@
         <v>19</v>
       </c>
       <c r="B190" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.01291257152861673</v>
+        <v>0.01446883753371681</v>
       </c>
       <c r="E190" t="n">
         <v>18</v>
@@ -7178,15 +7178,15 @@
         <v>19</v>
       </c>
       <c r="B191" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.01009969836019126</v>
+        <v>0.02044383029018533</v>
       </c>
       <c r="E191" t="n">
         <v>19</v>
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.1833771459377368</v>
+        <v>0.1922345381363258</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -7224,7 +7224,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.1690834359737643</v>
+        <v>0.170489774890258</v>
       </c>
       <c r="E193" t="n">
         <v>2</v>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.1329249531737076</v>
+        <v>0.1290070810625188</v>
       </c>
       <c r="E194" t="n">
         <v>3</v>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.07823799377437417</v>
+        <v>0.07734894018890598</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -7281,7 +7281,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.07747020026984547</v>
+        <v>0.09200391409589738</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.08456786158432687</v>
+        <v>0.07825870739371774</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.01953153892413693</v>
+        <v>0.02471022657691866</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -7330,15 +7330,15 @@
         <v>20</v>
       </c>
       <c r="B199" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.05954413532810102</v>
+        <v>0.03193444102125761</v>
       </c>
       <c r="E199" t="n">
         <v>8</v>
@@ -7349,15 +7349,15 @@
         <v>20</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.03054011281339992</v>
+        <v>0.02686522913599552</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -7368,15 +7368,15 @@
         <v>20</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.03581008355058767</v>
+        <v>0.01278615296474933</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -7387,15 +7387,15 @@
         <v>20</v>
       </c>
       <c r="B202" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.01710306874855177</v>
+        <v>0.01326517337959694</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -7406,15 +7406,15 @@
         <v>20</v>
       </c>
       <c r="B203" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.01158945527395336</v>
+        <v>0.01449117668399288</v>
       </c>
       <c r="E203" t="n">
         <v>12</v>
@@ -7425,15 +7425,15 @@
         <v>20</v>
       </c>
       <c r="B204" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.009940819531053302</v>
+        <v>0.01506071938984785</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -7444,15 +7444,15 @@
         <v>20</v>
       </c>
       <c r="B205" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.005910335239728746</v>
+        <v>0.01710695946613781</v>
       </c>
       <c r="E205" t="n">
         <v>14</v>
@@ -7463,15 +7463,15 @@
         <v>20</v>
       </c>
       <c r="B206" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.01238258765079326</v>
+        <v>0.01686369518936122</v>
       </c>
       <c r="E206" t="n">
         <v>15</v>
@@ -7482,15 +7482,15 @@
         <v>20</v>
       </c>
       <c r="B207" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.01083167286818693</v>
+        <v>0.01345003413599939</v>
       </c>
       <c r="E207" t="n">
         <v>16</v>
@@ -7501,15 +7501,15 @@
         <v>20</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.01410527785847985</v>
+        <v>0.02030804298182495</v>
       </c>
       <c r="E208" t="n">
         <v>17</v>
@@ -7520,15 +7520,15 @@
         <v>20</v>
       </c>
       <c r="B209" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.01527884261638768</v>
+        <v>0.01620949460783624</v>
       </c>
       <c r="E209" t="n">
         <v>18</v>
@@ -7539,15 +7539,15 @@
         <v>20</v>
       </c>
       <c r="B210" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.01084472307528157</v>
+        <v>0.02408420496768553</v>
       </c>
       <c r="E210" t="n">
         <v>19</v>
@@ -7558,15 +7558,15 @@
         <v>20</v>
       </c>
       <c r="B211" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.02092575580760273</v>
+        <v>0.01352149373117218</v>
       </c>
       <c r="E211" t="n">
         <v>20</v>
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.1281266058679345</v>
+        <v>0.1600255508709789</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.1770010148745436</v>
+        <v>0.1625518494657665</v>
       </c>
       <c r="E213" t="n">
         <v>2</v>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.1839239254119615</v>
+        <v>0.1968802276451385</v>
       </c>
       <c r="E214" t="n">
         <v>3</v>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.07942002551460652</v>
+        <v>0.06904253584229719</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.09531430490278356</v>
+        <v>0.09773306252408444</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.05473606344665095</v>
+        <v>0.05950834742779975</v>
       </c>
       <c r="E217" t="n">
         <v>6</v>
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.01804578281277765</v>
+        <v>0.02549094040231826</v>
       </c>
       <c r="E218" t="n">
         <v>7</v>
@@ -7710,15 +7710,15 @@
         <v>21</v>
       </c>
       <c r="B219" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.07275027515947446</v>
+        <v>0.03448222289843926</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -7729,15 +7729,15 @@
         <v>21</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.02008634554727353</v>
+        <v>0.02080205301948031</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -7748,15 +7748,15 @@
         <v>21</v>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.03796098382426188</v>
+        <v>0.01294746242865868</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -7767,15 +7767,15 @@
         <v>21</v>
       </c>
       <c r="B222" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.01963519870509013</v>
+        <v>0.01490004116202844</v>
       </c>
       <c r="E222" t="n">
         <v>11</v>
@@ -7786,15 +7786,15 @@
         <v>21</v>
       </c>
       <c r="B223" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.01319067666130581</v>
+        <v>0.01221371683109012</v>
       </c>
       <c r="E223" t="n">
         <v>12</v>
@@ -7805,15 +7805,15 @@
         <v>21</v>
       </c>
       <c r="B224" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.01055780028637837</v>
+        <v>0.01217226744227568</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -7824,15 +7824,15 @@
         <v>21</v>
       </c>
       <c r="B225" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.009946045019825711</v>
+        <v>0.01729912464177114</v>
       </c>
       <c r="E225" t="n">
         <v>14</v>
@@ -7843,15 +7843,15 @@
         <v>21</v>
       </c>
       <c r="B226" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.009966005452625137</v>
+        <v>0.01511976192858649</v>
       </c>
       <c r="E226" t="n">
         <v>15</v>
@@ -7862,15 +7862,15 @@
         <v>21</v>
       </c>
       <c r="B227" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.009601527368496654</v>
+        <v>0.01314318903844657</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -7881,15 +7881,15 @@
         <v>21</v>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.01284654730290135</v>
+        <v>0.01727615388069187</v>
       </c>
       <c r="E228" t="n">
         <v>17</v>
@@ -7900,15 +7900,15 @@
         <v>21</v>
       </c>
       <c r="B229" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.01076297694583059</v>
+        <v>0.01338509739334898</v>
       </c>
       <c r="E229" t="n">
         <v>18</v>
@@ -7919,15 +7919,15 @@
         <v>21</v>
       </c>
       <c r="B230" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.00831563458345122</v>
+        <v>0.02446024952338891</v>
       </c>
       <c r="E230" t="n">
         <v>19</v>
@@ -7938,15 +7938,15 @@
         <v>21</v>
       </c>
       <c r="B231" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.01964052107273598</v>
+        <v>0.01359871174206659</v>
       </c>
       <c r="E231" t="n">
         <v>20</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.008171739239091119</v>
+        <v>0.006967433891343357</v>
       </c>
       <c r="E232" t="n">
         <v>21</v>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.1381531453999819</v>
+        <v>0.1238509731834465</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.16667782261586</v>
+        <v>0.1726092838147952</v>
       </c>
       <c r="E234" t="n">
         <v>2</v>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.165243089510055</v>
+        <v>0.173151248734004</v>
       </c>
       <c r="E235" t="n">
         <v>3</v>
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.04899475606658803</v>
+        <v>0.06592597853355131</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.1168143623467933</v>
+        <v>0.1241125346023643</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.0646953542369029</v>
+        <v>0.07512451926479509</v>
       </c>
       <c r="E238" t="n">
         <v>6</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.02550825691724819</v>
+        <v>0.02175718510561885</v>
       </c>
       <c r="E239" t="n">
         <v>7</v>
@@ -8109,15 +8109,15 @@
         <v>22</v>
       </c>
       <c r="B240" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0.06096287293457735</v>
+        <v>0.02676720421755735</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -8128,15 +8128,15 @@
         <v>22</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.02828384431675652</v>
+        <v>0.02884619761762104</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -8147,15 +8147,15 @@
         <v>22</v>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.03731587302118101</v>
+        <v>0.01721899174268302</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -8166,15 +8166,15 @@
         <v>22</v>
       </c>
       <c r="B243" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.01874817526180888</v>
+        <v>0.01050463096245016</v>
       </c>
       <c r="E243" t="n">
         <v>11</v>
@@ -8185,15 +8185,15 @@
         <v>22</v>
       </c>
       <c r="B244" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.01628248503322992</v>
+        <v>0.01118941172695806</v>
       </c>
       <c r="E244" t="n">
         <v>12</v>
@@ -8204,15 +8204,15 @@
         <v>22</v>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.0101087000875224</v>
+        <v>0.013049449240843</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -8223,15 +8223,15 @@
         <v>22</v>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0.008472631258922966</v>
+        <v>0.02264355173042081</v>
       </c>
       <c r="E246" t="n">
         <v>14</v>
@@ -8242,15 +8242,15 @@
         <v>22</v>
       </c>
       <c r="B247" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0.01454542284230704</v>
+        <v>0.015311755919124</v>
       </c>
       <c r="E247" t="n">
         <v>15</v>
@@ -8261,15 +8261,15 @@
         <v>22</v>
       </c>
       <c r="B248" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.01067978926603163</v>
+        <v>0.01030990133656316</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -8280,15 +8280,15 @@
         <v>22</v>
       </c>
       <c r="B249" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.008032965822959657</v>
+        <v>0.01332827034381403</v>
       </c>
       <c r="E249" t="n">
         <v>17</v>
@@ -8299,15 +8299,15 @@
         <v>22</v>
       </c>
       <c r="B250" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.01294805550035567</v>
+        <v>0.01527755978378501</v>
       </c>
       <c r="E250" t="n">
         <v>18</v>
@@ -8318,15 +8318,15 @@
         <v>22</v>
       </c>
       <c r="B251" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.01111736593595532</v>
+        <v>0.02382976548233021</v>
       </c>
       <c r="E251" t="n">
         <v>19</v>
@@ -8337,15 +8337,15 @@
         <v>22</v>
       </c>
       <c r="B252" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0.01890529817834316</v>
+        <v>0.01099822120772899</v>
       </c>
       <c r="E252" t="n">
         <v>20</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0.01054274643735131</v>
+        <v>0.01239382306272079</v>
       </c>
       <c r="E253" t="n">
         <v>21</v>
@@ -8375,15 +8375,15 @@
         <v>22</v>
       </c>
       <c r="B254" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.006966987009267837</v>
+        <v>0.01179954238682529</v>
       </c>
       <c r="E254" t="n">
         <v>22</v>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0.1345711194254606</v>
+        <v>0.1468270161884953</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0.1490491496351219</v>
+        <v>0.1454497986532001</v>
       </c>
       <c r="E256" t="n">
         <v>2</v>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0.1867061669903787</v>
+        <v>0.1889679887725189</v>
       </c>
       <c r="E257" t="n">
         <v>3</v>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0.07292108325907284</v>
+        <v>0.07157667422683411</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.08861435673502976</v>
+        <v>0.09991147054731042</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0.07334754595324361</v>
+        <v>0.07634290189396924</v>
       </c>
       <c r="E260" t="n">
         <v>6</v>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0.0209243466480283</v>
+        <v>0.02592086646245696</v>
       </c>
       <c r="E261" t="n">
         <v>7</v>
@@ -8527,15 +8527,15 @@
         <v>23</v>
       </c>
       <c r="B262" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.06507445348947477</v>
+        <v>0.02784465140638854</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -8546,15 +8546,15 @@
         <v>23</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0.02251477613486588</v>
+        <v>0.02805469119160867</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -8565,15 +8565,15 @@
         <v>23</v>
       </c>
       <c r="B264" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0.03452091592524795</v>
+        <v>0.01272915976850333</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -8584,15 +8584,15 @@
         <v>23</v>
       </c>
       <c r="B265" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0.01614912737290714</v>
+        <v>0.01369560295293102</v>
       </c>
       <c r="E265" t="n">
         <v>11</v>
@@ -8603,15 +8603,15 @@
         <v>23</v>
       </c>
       <c r="B266" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0.01081705599496096</v>
+        <v>0.01429144813912911</v>
       </c>
       <c r="E266" t="n">
         <v>12</v>
@@ -8622,15 +8622,15 @@
         <v>23</v>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0.01009083944140243</v>
+        <v>0.01657416770093694</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -8641,15 +8641,15 @@
         <v>23</v>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0.009688593043471711</v>
+        <v>0.01546800202818264</v>
       </c>
       <c r="E268" t="n">
         <v>14</v>
@@ -8660,15 +8660,15 @@
         <v>23</v>
       </c>
       <c r="B269" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0.01206566174925236</v>
+        <v>0.01319706255661733</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -8679,15 +8679,15 @@
         <v>23</v>
       </c>
       <c r="B270" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0.01051156411983745</v>
+        <v>0.0109258456796118</v>
       </c>
       <c r="E270" t="n">
         <v>16</v>
@@ -8698,15 +8698,15 @@
         <v>23</v>
       </c>
       <c r="B271" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0.01130425442009197</v>
+        <v>0.01447740043485259</v>
       </c>
       <c r="E271" t="n">
         <v>17</v>
@@ -8717,15 +8717,15 @@
         <v>23</v>
       </c>
       <c r="B272" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0.01271748714529577</v>
+        <v>0.01302264908388719</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -8736,15 +8736,15 @@
         <v>23</v>
       </c>
       <c r="B273" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0.008380041152052393</v>
+        <v>0.01847028112247193</v>
       </c>
       <c r="E273" t="n">
         <v>19</v>
@@ -8755,15 +8755,15 @@
         <v>23</v>
       </c>
       <c r="B274" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.0205564347048211</v>
+        <v>0.01045900830837598</v>
       </c>
       <c r="E274" t="n">
         <v>20</v>
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0.01211230345359704</v>
+        <v>0.0104140951681096</v>
       </c>
       <c r="E275" t="n">
         <v>21</v>
@@ -8793,15 +8793,15 @@
         <v>23</v>
       </c>
       <c r="B276" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.005092704578607977</v>
+        <v>0.009804908413890897</v>
       </c>
       <c r="E276" t="n">
         <v>22</v>
@@ -8812,15 +8812,15 @@
         <v>23</v>
       </c>
       <c r="B277" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0.01227001862777741</v>
+        <v>0.01557430929971738</v>
       </c>
       <c r="E277" t="n">
         <v>23</v>
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.1675863323021243</v>
+        <v>0.1568451318913876</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0.1050546948756961</v>
+        <v>0.1372846951784659</v>
       </c>
       <c r="E279" t="n">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0.1763631642762429</v>
+        <v>0.1842261955822307</v>
       </c>
       <c r="E280" t="n">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0.07456963860950326</v>
+        <v>0.07350977407587911</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -8915,7 +8915,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.09060813654328952</v>
+        <v>0.1024990335343617</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0.06654584461447333</v>
+        <v>0.05856820910397669</v>
       </c>
       <c r="E283" t="n">
         <v>6</v>
@@ -8953,7 +8953,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.03105982600509919</v>
+        <v>0.03204720828744342</v>
       </c>
       <c r="E284" t="n">
         <v>7</v>
@@ -8964,15 +8964,15 @@
         <v>24</v>
       </c>
       <c r="B285" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0.05337752278292017</v>
+        <v>0.02648438078493915</v>
       </c>
       <c r="E285" t="n">
         <v>8</v>
@@ -8983,15 +8983,15 @@
         <v>24</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0.0240952733508142</v>
+        <v>0.02673693606874985</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -9002,15 +9002,15 @@
         <v>24</v>
       </c>
       <c r="B287" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0.03753509742882566</v>
+        <v>0.01184395667941778</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -9021,15 +9021,15 @@
         <v>24</v>
       </c>
       <c r="B288" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0.01842918897244523</v>
+        <v>0.01021454212282986</v>
       </c>
       <c r="E288" t="n">
         <v>11</v>
@@ -9040,15 +9040,15 @@
         <v>24</v>
       </c>
       <c r="B289" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.01283498703818724</v>
+        <v>0.01243605102772341</v>
       </c>
       <c r="E289" t="n">
         <v>12</v>
@@ -9059,15 +9059,15 @@
         <v>24</v>
       </c>
       <c r="B290" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0.01187708326220836</v>
+        <v>0.01640788118861927</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -9078,15 +9078,15 @@
         <v>24</v>
       </c>
       <c r="B291" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0.006365589727119132</v>
+        <v>0.0162327219598075</v>
       </c>
       <c r="E291" t="n">
         <v>14</v>
@@ -9097,15 +9097,15 @@
         <v>24</v>
       </c>
       <c r="B292" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.01240852517029228</v>
+        <v>0.01251044385827316</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -9116,15 +9116,15 @@
         <v>24</v>
       </c>
       <c r="B293" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.01034120300151184</v>
+        <v>0.008024465156546272</v>
       </c>
       <c r="E293" t="n">
         <v>16</v>
@@ -9135,15 +9135,15 @@
         <v>24</v>
       </c>
       <c r="B294" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0.01001696501070215</v>
+        <v>0.01149803184543259</v>
       </c>
       <c r="E294" t="n">
         <v>17</v>
@@ -9154,15 +9154,15 @@
         <v>24</v>
       </c>
       <c r="B295" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.01464726827144796</v>
+        <v>0.01687730736715006</v>
       </c>
       <c r="E295" t="n">
         <v>18</v>
@@ -9173,15 +9173,15 @@
         <v>24</v>
       </c>
       <c r="B296" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0.008270905081392227</v>
+        <v>0.01882116856086579</v>
       </c>
       <c r="E296" t="n">
         <v>19</v>
@@ -9192,15 +9192,15 @@
         <v>24</v>
       </c>
       <c r="B297" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0.01595036088526142</v>
+        <v>0.01226218781807662</v>
       </c>
       <c r="E297" t="n">
         <v>20</v>
@@ -9219,7 +9219,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0.01409909558261862</v>
+        <v>0.008647968869683586</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -9230,15 +9230,15 @@
         <v>24</v>
       </c>
       <c r="B299" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0.01171215120683206</v>
+        <v>0.0158328508980155</v>
       </c>
       <c r="E299" t="n">
         <v>22</v>
@@ -9249,15 +9249,15 @@
         <v>24</v>
       </c>
       <c r="B300" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0.01184236698615185</v>
+        <v>0.01623332814689345</v>
       </c>
       <c r="E300" t="n">
         <v>23</v>
@@ -9268,15 +9268,15 @@
         <v>24</v>
       </c>
       <c r="B301" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0.01440877901484105</v>
+        <v>0.01395552999323086</v>
       </c>
       <c r="E301" t="n">
         <v>24</v>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0.1117579940336055</v>
+        <v>0.1265164968943364</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.1582933585581376</v>
+        <v>0.1523837148429923</v>
       </c>
       <c r="E303" t="n">
         <v>2</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0.1746987892693009</v>
+        <v>0.1830032792681361</v>
       </c>
       <c r="E304" t="n">
         <v>3</v>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0.07513003662051049</v>
+        <v>0.08068786778866449</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0.1125147433745625</v>
+        <v>0.1041467524163029</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0.06172639017565814</v>
+        <v>0.06952620431930959</v>
       </c>
       <c r="E307" t="n">
         <v>6</v>
@@ -9409,7 +9409,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0.02847397416248958</v>
+        <v>0.02935966718346816</v>
       </c>
       <c r="E308" t="n">
         <v>7</v>
@@ -9420,15 +9420,15 @@
         <v>25</v>
       </c>
       <c r="B309" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0.05791646987352136</v>
+        <v>0.02682100641267377</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -9439,15 +9439,15 @@
         <v>25</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0.02679714908236697</v>
+        <v>0.01933639737700532</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -9458,15 +9458,15 @@
         <v>25</v>
       </c>
       <c r="B311" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0.03915304358540258</v>
+        <v>0.01369259133190927</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -9477,15 +9477,15 @@
         <v>25</v>
       </c>
       <c r="B312" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0.01999777410622306</v>
+        <v>0.01214441471066952</v>
       </c>
       <c r="E312" t="n">
         <v>11</v>
@@ -9496,15 +9496,15 @@
         <v>25</v>
       </c>
       <c r="B313" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0.01134473673282683</v>
+        <v>0.01389239609923429</v>
       </c>
       <c r="E313" t="n">
         <v>12</v>
@@ -9515,15 +9515,15 @@
         <v>25</v>
       </c>
       <c r="B314" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0.009605214979288037</v>
+        <v>0.01281093026505346</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -9534,15 +9534,15 @@
         <v>25</v>
       </c>
       <c r="B315" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.009372716677649393</v>
+        <v>0.01616836879420474</v>
       </c>
       <c r="E315" t="n">
         <v>14</v>
@@ -9553,15 +9553,15 @@
         <v>25</v>
       </c>
       <c r="B316" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0.0101742672436398</v>
+        <v>0.01504889158679391</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -9572,15 +9572,15 @@
         <v>25</v>
       </c>
       <c r="B317" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0.009856772982705778</v>
+        <v>0.009147668719354655</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -9591,15 +9591,15 @@
         <v>25</v>
       </c>
       <c r="B318" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0.009622501268978548</v>
+        <v>0.0114050785163277</v>
       </c>
       <c r="E318" t="n">
         <v>17</v>
@@ -9610,15 +9610,15 @@
         <v>25</v>
       </c>
       <c r="B319" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0.01064970101105912</v>
+        <v>0.01104781990695522</v>
       </c>
       <c r="E319" t="n">
         <v>18</v>
@@ -9629,15 +9629,15 @@
         <v>25</v>
       </c>
       <c r="B320" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.009177658099573285</v>
+        <v>0.0194223797086301</v>
       </c>
       <c r="E320" t="n">
         <v>19</v>
@@ -9648,15 +9648,15 @@
         <v>25</v>
       </c>
       <c r="B321" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.01225958382140594</v>
+        <v>0.008622631090917276</v>
       </c>
       <c r="E321" t="n">
         <v>20</v>
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.004533724442287367</v>
+        <v>0.01107750168302137</v>
       </c>
       <c r="E322" t="n">
         <v>21</v>
@@ -9686,15 +9686,15 @@
         <v>25</v>
       </c>
       <c r="B323" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.006153213447038861</v>
+        <v>0.01466545456298234</v>
       </c>
       <c r="E323" t="n">
         <v>22</v>
@@ -9705,15 +9705,15 @@
         <v>25</v>
       </c>
       <c r="B324" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.0110414669789042</v>
+        <v>0.01113436735610623</v>
       </c>
       <c r="E324" t="n">
         <v>23</v>
@@ -9724,15 +9724,15 @@
         <v>25</v>
       </c>
       <c r="B325" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.01475492484209632</v>
+        <v>0.01246574616070905</v>
       </c>
       <c r="E325" t="n">
         <v>24</v>
@@ -9743,15 +9743,15 @@
         <v>25</v>
       </c>
       <c r="B326" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.004993794630768037</v>
+        <v>0.01547237300424195</v>
       </c>
       <c r="E326" t="n">
         <v>25</v>
@@ -9770,7 +9770,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0.1398022737560705</v>
+        <v>0.1542388125318597</v>
       </c>
       <c r="E327" t="n">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0.189241545077603</v>
+        <v>0.1560782960866628</v>
       </c>
       <c r="E328" t="n">
         <v>2</v>
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0.1481783742390571</v>
+        <v>0.1535108727957327</v>
       </c>
       <c r="E329" t="n">
         <v>3</v>
@@ -9827,7 +9827,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0.07289001252188275</v>
+        <v>0.09160290098293877</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0.07429950050072126</v>
+        <v>0.08291474479737275</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -9865,7 +9865,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0.0625372724289725</v>
+        <v>0.0687189707906965</v>
       </c>
       <c r="E332" t="n">
         <v>6</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0.02724487769786562</v>
+        <v>0.0356461457215572</v>
       </c>
       <c r="E333" t="n">
         <v>7</v>
@@ -9895,15 +9895,15 @@
         <v>26</v>
       </c>
       <c r="B334" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0.06210116947267001</v>
+        <v>0.02438496793781838</v>
       </c>
       <c r="E334" t="n">
         <v>8</v>
@@ -9914,15 +9914,15 @@
         <v>26</v>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0.02197378293889236</v>
+        <v>0.02270806920150993</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -9933,15 +9933,15 @@
         <v>26</v>
       </c>
       <c r="B336" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0.03505266318525273</v>
+        <v>0.009543954797657409</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9952,15 +9952,15 @@
         <v>26</v>
       </c>
       <c r="B337" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0.01917450874894515</v>
+        <v>0.01077949223197965</v>
       </c>
       <c r="E337" t="n">
         <v>11</v>
@@ -9971,15 +9971,15 @@
         <v>26</v>
       </c>
       <c r="B338" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0.009213627000634484</v>
+        <v>0.01555290075114909</v>
       </c>
       <c r="E338" t="n">
         <v>12</v>
@@ -9990,15 +9990,15 @@
         <v>26</v>
       </c>
       <c r="B339" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.0117608261124926</v>
+        <v>0.0117187522071382</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -10009,15 +10009,15 @@
         <v>26</v>
       </c>
       <c r="B340" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0.008687573145906943</v>
+        <v>0.01814654482717973</v>
       </c>
       <c r="E340" t="n">
         <v>14</v>
@@ -10028,15 +10028,15 @@
         <v>26</v>
       </c>
       <c r="B341" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0.01216136619744407</v>
+        <v>0.01489877493469119</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -10047,15 +10047,15 @@
         <v>26</v>
       </c>
       <c r="B342" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0.007202572082477976</v>
+        <v>0.009393209738606854</v>
       </c>
       <c r="E342" t="n">
         <v>16</v>
@@ -10066,15 +10066,15 @@
         <v>26</v>
       </c>
       <c r="B343" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0.008398442561957707</v>
+        <v>0.01103205851180702</v>
       </c>
       <c r="E343" t="n">
         <v>17</v>
@@ -10085,15 +10085,15 @@
         <v>26</v>
       </c>
       <c r="B344" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0.007555653500333461</v>
+        <v>0.01362935083630896</v>
       </c>
       <c r="E344" t="n">
         <v>18</v>
@@ -10104,15 +10104,15 @@
         <v>26</v>
       </c>
       <c r="B345" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0.007787245134426293</v>
+        <v>0.02015707740417417</v>
       </c>
       <c r="E345" t="n">
         <v>19</v>
@@ -10123,15 +10123,15 @@
         <v>26</v>
       </c>
       <c r="B346" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0.01367856884016905</v>
+        <v>0.008286253959293763</v>
       </c>
       <c r="E346" t="n">
         <v>20</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0.008672572316516717</v>
+        <v>0.009046723487362044</v>
       </c>
       <c r="E347" t="n">
         <v>21</v>
@@ -10161,15 +10161,15 @@
         <v>26</v>
       </c>
       <c r="B348" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0.005253360772858779</v>
+        <v>0.01036541733825259</v>
       </c>
       <c r="E348" t="n">
         <v>22</v>
@@ -10180,15 +10180,15 @@
         <v>26</v>
       </c>
       <c r="B349" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0.0119382838982241</v>
+        <v>0.00897313938352472</v>
       </c>
       <c r="E349" t="n">
         <v>23</v>
@@ -10199,15 +10199,15 @@
         <v>26</v>
       </c>
       <c r="B350" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0.01217654715874613</v>
+        <v>0.01271416136563558</v>
       </c>
       <c r="E350" t="n">
         <v>24</v>
@@ -10218,15 +10218,15 @@
         <v>26</v>
       </c>
       <c r="B351" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0.005759768300814265</v>
+        <v>0.01258617104643467</v>
       </c>
       <c r="E351" t="n">
         <v>25</v>
@@ -10237,15 +10237,15 @@
         <v>26</v>
       </c>
       <c r="B352" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0.0172576124090645</v>
+        <v>0.01337223633265556</v>
       </c>
       <c r="E352" t="n">
         <v>26</v>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0.1656051307618471</v>
+        <v>0.1704144978043051</v>
       </c>
       <c r="E353" t="n">
         <v>1</v>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0.1890314806181123</v>
+        <v>0.1909237544707966</v>
       </c>
       <c r="E354" t="n">
         <v>2</v>
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0.1365838511670629</v>
+        <v>0.1443607225235757</v>
       </c>
       <c r="E355" t="n">
         <v>3</v>
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0.06048542698450705</v>
+        <v>0.06508415310004487</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0.06607012130920625</v>
+        <v>0.07436012927018404</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -10359,7 +10359,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0.07625789232066413</v>
+        <v>0.06764016997713558</v>
       </c>
       <c r="E358" t="n">
         <v>6</v>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0.02391961701405244</v>
+        <v>0.02477845462186124</v>
       </c>
       <c r="E359" t="n">
         <v>7</v>
@@ -10389,15 +10389,15 @@
         <v>27</v>
       </c>
       <c r="B360" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0.06120137077112468</v>
+        <v>0.02745376399456526</v>
       </c>
       <c r="E360" t="n">
         <v>8</v>
@@ -10408,15 +10408,15 @@
         <v>27</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0.02007302836242861</v>
+        <v>0.02174241537507831</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -10427,15 +10427,15 @@
         <v>27</v>
       </c>
       <c r="B362" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0.03182306162667245</v>
+        <v>0.00820988719229709</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -10446,15 +10446,15 @@
         <v>27</v>
       </c>
       <c r="B363" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0.01498137933080671</v>
+        <v>0.008919856561101365</v>
       </c>
       <c r="E363" t="n">
         <v>11</v>
@@ -10465,15 +10465,15 @@
         <v>27</v>
       </c>
       <c r="B364" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0.01153664358514664</v>
+        <v>0.01683263149874156</v>
       </c>
       <c r="E364" t="n">
         <v>12</v>
@@ -10484,15 +10484,15 @@
         <v>27</v>
       </c>
       <c r="B365" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0.01102085722333638</v>
+        <v>0.008786235794302488</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -10503,15 +10503,15 @@
         <v>27</v>
       </c>
       <c r="B366" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0.008439206444395919</v>
+        <v>0.01614359930516971</v>
       </c>
       <c r="E366" t="n">
         <v>14</v>
@@ -10522,15 +10522,15 @@
         <v>27</v>
       </c>
       <c r="B367" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0.009518800835926629</v>
+        <v>0.01312314443637316</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -10541,15 +10541,15 @@
         <v>27</v>
       </c>
       <c r="B368" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0.007072256368756371</v>
+        <v>0.009102745514026981</v>
       </c>
       <c r="E368" t="n">
         <v>16</v>
@@ -10560,15 +10560,15 @@
         <v>27</v>
       </c>
       <c r="B369" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0.008743873667964398</v>
+        <v>0.01065897143175533</v>
       </c>
       <c r="E369" t="n">
         <v>17</v>
@@ -10579,15 +10579,15 @@
         <v>27</v>
       </c>
       <c r="B370" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0.009373866088765077</v>
+        <v>0.009575936053818918</v>
       </c>
       <c r="E370" t="n">
         <v>18</v>
@@ -10598,15 +10598,15 @@
         <v>27</v>
       </c>
       <c r="B371" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0.008849590996365108</v>
+        <v>0.02495067603918373</v>
       </c>
       <c r="E371" t="n">
         <v>19</v>
@@ -10617,15 +10617,15 @@
         <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0.01493068935464162</v>
+        <v>0.006989784069491474</v>
       </c>
       <c r="E372" t="n">
         <v>20</v>
@@ -10644,7 +10644,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0.006655229158693863</v>
+        <v>0.009610052258552809</v>
       </c>
       <c r="E373" t="n">
         <v>21</v>
@@ -10655,15 +10655,15 @@
         <v>27</v>
       </c>
       <c r="B374" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0.005996288361124294</v>
+        <v>0.01132270599293298</v>
       </c>
       <c r="E374" t="n">
         <v>22</v>
@@ -10674,15 +10674,15 @@
         <v>27</v>
       </c>
       <c r="B375" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0.01040873371251475</v>
+        <v>0.01111459471064676</v>
       </c>
       <c r="E375" t="n">
         <v>23</v>
@@ -10693,15 +10693,15 @@
         <v>27</v>
       </c>
       <c r="B376" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0.01518795345519371</v>
+        <v>0.0150712602488497</v>
       </c>
       <c r="E376" t="n">
         <v>24</v>
@@ -10712,15 +10712,15 @@
         <v>27</v>
       </c>
       <c r="B377" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0.004954964674047419</v>
+        <v>0.009039853924865462</v>
       </c>
       <c r="E377" t="n">
         <v>25</v>
@@ -10731,15 +10731,15 @@
         <v>27</v>
       </c>
       <c r="B378" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0.0135781364900447</v>
+        <v>0.0119359675403753</v>
       </c>
       <c r="E378" t="n">
         <v>26</v>
@@ -10750,15 +10750,15 @@
         <v>27</v>
       </c>
       <c r="B379" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0.007700549316598535</v>
+        <v>0.01185403628996849</v>
       </c>
       <c r="E379" t="n">
         <v>27</v>
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0.1354087365323425</v>
+        <v>0.1547571579984678</v>
       </c>
       <c r="E380" t="n">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0.1388537471753132</v>
+        <v>0.1598944361134648</v>
       </c>
       <c r="E381" t="n">
         <v>2</v>
@@ -10815,7 +10815,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0.1632223628744597</v>
+        <v>0.1497949480664711</v>
       </c>
       <c r="E382" t="n">
         <v>3</v>
@@ -10834,7 +10834,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0.06515644886143299</v>
+        <v>0.06266974749877689</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0.07872700229484403</v>
+        <v>0.07559176734624878</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0.0847082641383857</v>
+        <v>0.08839606282958409</v>
       </c>
       <c r="E385" t="n">
         <v>6</v>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0.02424708678725772</v>
+        <v>0.02521915626624658</v>
       </c>
       <c r="E386" t="n">
         <v>7</v>
@@ -10902,15 +10902,15 @@
         <v>28</v>
       </c>
       <c r="B387" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0.06942920545410536</v>
+        <v>0.02981972872718662</v>
       </c>
       <c r="E387" t="n">
         <v>8</v>
@@ -10921,15 +10921,15 @@
         <v>28</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0.02294979352799223</v>
+        <v>0.01886618151135805</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -10940,15 +10940,15 @@
         <v>28</v>
       </c>
       <c r="B389" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0.02949801874429725</v>
+        <v>0.01127805071030341</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
@@ -10959,15 +10959,15 @@
         <v>28</v>
       </c>
       <c r="B390" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0.01643120382708853</v>
+        <v>0.01084484588899489</v>
       </c>
       <c r="E390" t="n">
         <v>11</v>
@@ -10978,15 +10978,15 @@
         <v>28</v>
       </c>
       <c r="B391" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0.01153743661759224</v>
+        <v>0.01586179151620285</v>
       </c>
       <c r="E391" t="n">
         <v>12</v>
@@ -10997,15 +10997,15 @@
         <v>28</v>
       </c>
       <c r="B392" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0.01020882287601699</v>
+        <v>0.01282536979215673</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -11016,15 +11016,15 @@
         <v>28</v>
       </c>
       <c r="B393" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0.008492863207885197</v>
+        <v>0.01595515107012298</v>
       </c>
       <c r="E393" t="n">
         <v>14</v>
@@ -11035,15 +11035,15 @@
         <v>28</v>
       </c>
       <c r="B394" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0.01113388210277156</v>
+        <v>0.01983396444512005</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -11054,15 +11054,15 @@
         <v>28</v>
       </c>
       <c r="B395" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0.009887760498714433</v>
+        <v>0.00866601389703945</v>
       </c>
       <c r="E395" t="n">
         <v>16</v>
@@ -11073,15 +11073,15 @@
         <v>28</v>
       </c>
       <c r="B396" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0.005401335265889749</v>
+        <v>0.01350280915338879</v>
       </c>
       <c r="E396" t="n">
         <v>17</v>
@@ -11092,15 +11092,15 @@
         <v>28</v>
       </c>
       <c r="B397" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0.009519879455402037</v>
+        <v>0.01578423402459571</v>
       </c>
       <c r="E397" t="n">
         <v>18</v>
@@ -11111,15 +11111,15 @@
         <v>28</v>
       </c>
       <c r="B398" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0.006675661638277906</v>
+        <v>0.0175719838801154</v>
       </c>
       <c r="E398" t="n">
         <v>19</v>
@@ -11130,15 +11130,15 @@
         <v>28</v>
       </c>
       <c r="B399" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0.0128669492165549</v>
+        <v>0.007038140319004882</v>
       </c>
       <c r="E399" t="n">
         <v>20</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0.01213183845011398</v>
+        <v>0.007955175565606761</v>
       </c>
       <c r="E400" t="n">
         <v>21</v>
@@ -11168,15 +11168,15 @@
         <v>28</v>
       </c>
       <c r="B401" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0.006820837101443338</v>
+        <v>0.009550578414572072</v>
       </c>
       <c r="E401" t="n">
         <v>22</v>
@@ -11187,15 +11187,15 @@
         <v>28</v>
       </c>
       <c r="B402" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0.01126557013279528</v>
+        <v>0.009377046909268277</v>
       </c>
       <c r="E402" t="n">
         <v>23</v>
@@ -11206,15 +11206,15 @@
         <v>28</v>
       </c>
       <c r="B403" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0.01552884469384627</v>
+        <v>0.01090595117429908</v>
       </c>
       <c r="E403" t="n">
         <v>24</v>
@@ -11225,15 +11225,15 @@
         <v>28</v>
       </c>
       <c r="B404" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0.004465590225020265</v>
+        <v>0.01042791933334236</v>
       </c>
       <c r="E404" t="n">
         <v>25</v>
@@ -11244,15 +11244,15 @@
         <v>28</v>
       </c>
       <c r="B405" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0.02162264720228819</v>
+        <v>0.01520924276634998</v>
       </c>
       <c r="E405" t="n">
         <v>26</v>
@@ -11263,15 +11263,15 @@
         <v>28</v>
       </c>
       <c r="B406" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0.007219644534071633</v>
+        <v>0.01183277484500961</v>
       </c>
       <c r="E406" t="n">
         <v>27</v>
@@ -11282,15 +11282,15 @@
         <v>28</v>
       </c>
       <c r="B407" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_peak_power_mean</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0.006588566563796794</v>
+        <v>0.01056976993670218</v>
       </c>
       <c r="E407" t="n">
         <v>28</v>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0.1301729802316249</v>
+        <v>0.1403413434524451</v>
       </c>
       <c r="E408" t="n">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0.1436002367883864</v>
+        <v>0.1529708108533334</v>
       </c>
       <c r="E409" t="n">
         <v>2</v>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>0.1368136649819164</v>
+        <v>0.1318522152834809</v>
       </c>
       <c r="E410" t="n">
         <v>3</v>
@@ -11366,7 +11366,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0.07597459748110949</v>
+        <v>0.07840839764751072</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0.08687510846347352</v>
+        <v>0.09237012477871819</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0.08651333911830593</v>
+        <v>0.08918695875941367</v>
       </c>
       <c r="E413" t="n">
         <v>6</v>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0.03618188705917419</v>
+        <v>0.03613986760867047</v>
       </c>
       <c r="E414" t="n">
         <v>7</v>
@@ -11434,15 +11434,15 @@
         <v>29</v>
       </c>
       <c r="B415" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0.05368190011157642</v>
+        <v>0.02608240221577974</v>
       </c>
       <c r="E415" t="n">
         <v>8</v>
@@ -11453,15 +11453,15 @@
         <v>29</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0.02358792548224911</v>
+        <v>0.0267031905866464</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -11472,15 +11472,15 @@
         <v>29</v>
       </c>
       <c r="B417" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0.04025122030759221</v>
+        <v>0.009439492767775426</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11491,15 +11491,15 @@
         <v>29</v>
       </c>
       <c r="B418" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0.01623343940027781</v>
+        <v>0.0115248703460401</v>
       </c>
       <c r="E418" t="n">
         <v>11</v>
@@ -11510,15 +11510,15 @@
         <v>29</v>
       </c>
       <c r="B419" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0.0087184604026869</v>
+        <v>0.01237221270956626</v>
       </c>
       <c r="E419" t="n">
         <v>12</v>
@@ -11529,15 +11529,15 @@
         <v>29</v>
       </c>
       <c r="B420" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0.01232075093161286</v>
+        <v>0.01136430409107379</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -11548,15 +11548,15 @@
         <v>29</v>
       </c>
       <c r="B421" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0.007559799993289713</v>
+        <v>0.01474892973329221</v>
       </c>
       <c r="E421" t="n">
         <v>14</v>
@@ -11567,15 +11567,15 @@
         <v>29</v>
       </c>
       <c r="B422" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0.008865166104630971</v>
+        <v>0.01557844661240092</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -11586,15 +11586,15 @@
         <v>29</v>
       </c>
       <c r="B423" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0.01125360891715126</v>
+        <v>0.007328652396569919</v>
       </c>
       <c r="E423" t="n">
         <v>16</v>
@@ -11605,15 +11605,15 @@
         <v>29</v>
       </c>
       <c r="B424" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0.008106942198425374</v>
+        <v>0.01413876921744518</v>
       </c>
       <c r="E424" t="n">
         <v>17</v>
@@ -11624,15 +11624,15 @@
         <v>29</v>
       </c>
       <c r="B425" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0.01314916940186587</v>
+        <v>0.01500980282845679</v>
       </c>
       <c r="E425" t="n">
         <v>18</v>
@@ -11643,15 +11643,15 @@
         <v>29</v>
       </c>
       <c r="B426" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0.006308079686559197</v>
+        <v>0.01404962649575828</v>
       </c>
       <c r="E426" t="n">
         <v>19</v>
@@ -11662,15 +11662,15 @@
         <v>29</v>
       </c>
       <c r="B427" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0.01186136235227028</v>
+        <v>0.009920099992104019</v>
       </c>
       <c r="E427" t="n">
         <v>20</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0.00737551888841311</v>
+        <v>0.00700866752029625</v>
       </c>
       <c r="E428" t="n">
         <v>21</v>
@@ -11700,15 +11700,15 @@
         <v>29</v>
       </c>
       <c r="B429" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0.009795579603490407</v>
+        <v>0.01518043310041257</v>
       </c>
       <c r="E429" t="n">
         <v>22</v>
@@ -11719,15 +11719,15 @@
         <v>29</v>
       </c>
       <c r="B430" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0.01120295124148003</v>
+        <v>0.009033867082509014</v>
       </c>
       <c r="E430" t="n">
         <v>23</v>
@@ -11738,15 +11738,15 @@
         <v>29</v>
       </c>
       <c r="B431" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0.01150637461735245</v>
+        <v>0.008996837699410717</v>
       </c>
       <c r="E431" t="n">
         <v>24</v>
@@ -11757,15 +11757,15 @@
         <v>29</v>
       </c>
       <c r="B432" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0.007649122141906129</v>
+        <v>0.007374717593462354</v>
       </c>
       <c r="E432" t="n">
         <v>25</v>
@@ -11776,15 +11776,15 @@
         <v>29</v>
       </c>
       <c r="B433" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0.01486726461912226</v>
+        <v>0.0129232828678747</v>
       </c>
       <c r="E433" t="n">
         <v>26</v>
@@ -11795,15 +11795,15 @@
         <v>29</v>
       </c>
       <c r="B434" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0.0079972198781839</v>
+        <v>0.007754897714510378</v>
       </c>
       <c r="E434" t="n">
         <v>27</v>
@@ -11814,15 +11814,15 @@
         <v>29</v>
       </c>
       <c r="B435" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_peak_power_mean</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0.006522418041829935</v>
+        <v>0.01370755887342016</v>
       </c>
       <c r="E435" t="n">
         <v>28</v>
@@ -11833,15 +11833,15 @@
         <v>29</v>
       </c>
       <c r="B436" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_range</t>
+          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0.005053911554042972</v>
+        <v>0.008489219171622349</v>
       </c>
       <c r="E436" t="n">
         <v>29</v>
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0.1470852694160835</v>
+        <v>0.1664831851372298</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -11879,7 +11879,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0.1688561479237677</v>
+        <v>0.1842394309237552</v>
       </c>
       <c r="E438" t="n">
         <v>2</v>
@@ -11898,7 +11898,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0.1610699419944178</v>
+        <v>0.1364240230459504</v>
       </c>
       <c r="E439" t="n">
         <v>3</v>
@@ -11917,7 +11917,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0.0825444189216827</v>
+        <v>0.0791283129746585</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0.06127467294512882</v>
+        <v>0.06416329233783225</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -11955,7 +11955,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0.0604235386140124</v>
+        <v>0.06132586643302128</v>
       </c>
       <c r="E442" t="n">
         <v>6</v>
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0.02704707018743182</v>
+        <v>0.02882553932367029</v>
       </c>
       <c r="E443" t="n">
         <v>7</v>
@@ -11985,15 +11985,15 @@
         <v>30</v>
       </c>
       <c r="B444" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_peak_to_peak</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0.05168382121073159</v>
+        <v>0.02572062769837917</v>
       </c>
       <c r="E444" t="n">
         <v>8</v>
@@ -12004,15 +12004,15 @@
         <v>30</v>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>current_phase_a_peak_to_peak</t>
+          <t>current_phase_a_crest_factor</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0.02441529842429018</v>
+        <v>0.02191872166225686</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -12023,15 +12023,15 @@
         <v>30</v>
       </c>
       <c r="B446" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>current_phase_a_crest_factor</t>
+          <t>current_phase_a_band_1_0_100hz_spread</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.02647885566949777</v>
+        <v>0.007941936456649411</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12042,15 +12042,15 @@
         <v>30</v>
       </c>
       <c r="B447" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0.01727816814122812</v>
+        <v>0.01030828972666596</v>
       </c>
       <c r="E447" t="n">
         <v>11</v>
@@ -12061,15 +12061,15 @@
         <v>30</v>
       </c>
       <c r="B448" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0.007098777228653763</v>
+        <v>0.008307578212811889</v>
       </c>
       <c r="E448" t="n">
         <v>12</v>
@@ -12080,15 +12080,15 @@
         <v>30</v>
       </c>
       <c r="B449" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_band_3_500_2000hz_power_ratio</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0.01078831066047086</v>
+        <v>0.0122765647563929</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -12099,15 +12099,15 @@
         <v>30</v>
       </c>
       <c r="B450" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_band_1_0_100hz_centroid</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0.007866864775304235</v>
+        <v>0.01359052769099094</v>
       </c>
       <c r="E450" t="n">
         <v>14</v>
@@ -12118,15 +12118,15 @@
         <v>30</v>
       </c>
       <c r="B451" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
+          <t>current_phase_a_band_1_0_100hz_flatness</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0.009884575054897102</v>
+        <v>0.01240284026931292</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -12137,15 +12137,15 @@
         <v>30</v>
       </c>
       <c r="B452" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_freq_range</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0.008329492802615388</v>
+        <v>0.01002939560505539</v>
       </c>
       <c r="E452" t="n">
         <v>16</v>
@@ -12156,15 +12156,15 @@
         <v>30</v>
       </c>
       <c r="B453" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>current_phase_a_spectral_centroid</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0.01097444572805848</v>
+        <v>0.01483176209043228</v>
       </c>
       <c r="E453" t="n">
         <v>17</v>
@@ -12175,15 +12175,15 @@
         <v>30</v>
       </c>
       <c r="B454" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_spread</t>
+          <t>current_phase_a_band_1_0_100hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0.009735072999445565</v>
+        <v>0.01355041658222676</v>
       </c>
       <c r="E454" t="n">
         <v>18</v>
@@ -12194,15 +12194,15 @@
         <v>30</v>
       </c>
       <c r="B455" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_entropy</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_power_std</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0.007836740525555793</v>
+        <v>0.01483810291312774</v>
       </c>
       <c r="E455" t="n">
         <v>19</v>
@@ -12213,15 +12213,15 @@
         <v>30</v>
       </c>
       <c r="B456" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0.01297355762413495</v>
+        <v>0.008623449651119742</v>
       </c>
       <c r="E456" t="n">
         <v>20</v>
@@ -12240,7 +12240,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0.01089109306943446</v>
+        <v>0.00854790394837213</v>
       </c>
       <c r="E457" t="n">
         <v>21</v>
@@ -12251,15 +12251,15 @@
         <v>30</v>
       </c>
       <c r="B458" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_prominence_std</t>
+          <t>current_phase_a_band_1_0_100hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0.006703745078546597</v>
+        <v>0.01148526641170371</v>
       </c>
       <c r="E458" t="n">
         <v>22</v>
@@ -12270,15 +12270,15 @@
         <v>30</v>
       </c>
       <c r="B459" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_relative_peak_power</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0.0127582353760939</v>
+        <v>0.00913682708138759</v>
       </c>
       <c r="E459" t="n">
         <v>23</v>
@@ -12289,15 +12289,15 @@
         <v>30</v>
       </c>
       <c r="B460" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_dominant_relative_peak_power</t>
+          <t>current_phase_a_band_1_0_100hz_power_ratio</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0.01099829338711224</v>
+        <v>0.012497154895974</v>
       </c>
       <c r="E460" t="n">
         <v>24</v>
@@ -12308,15 +12308,15 @@
         <v>30</v>
       </c>
       <c r="B461" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
+          <t>current_phase_a_band_3_500_2000hz_dominant_peak_to_band_energy_ratio</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0.004410015665389483</v>
+        <v>0.007208385527329078</v>
       </c>
       <c r="E461" t="n">
         <v>25</v>
@@ -12327,15 +12327,15 @@
         <v>30</v>
       </c>
       <c r="B462" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_flatness</t>
+          <t>current_phase_a_band_3_500_2000hz_centroid</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0.01842844146905002</v>
+        <v>0.0115526316704724</v>
       </c>
       <c r="E462" t="n">
         <v>26</v>
@@ -12346,15 +12346,15 @@
         <v>30</v>
       </c>
       <c r="B463" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>current_phase_a_band_2_100_500hz_power_ratio</t>
+          <t>current_phase_a_band_3_500_2000hz_peak_prominence_mean</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0.008875895173565672</v>
+        <v>0.01141038368886393</v>
       </c>
       <c r="E463" t="n">
         <v>27</v>
@@ -12365,15 +12365,15 @@
         <v>30</v>
       </c>
       <c r="B464" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>current_phase_a_band_3_500_2000hz_peak_power_mean</t>
+          <t>current_phase_a_band_4_2000_3500hz_peak_prominence_std</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0.007435405422143273</v>
+        <v>0.0120992028759643</v>
       </c>
       <c r="E464" t="n">
         <v>28</v>
@@ -12384,15 +12384,15 @@
         <v>30</v>
       </c>
       <c r="B465" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_range</t>
+          <t>current_phase_a_band_4_2000_3500hz_centroid</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0.003354814683649383</v>
+        <v>0.007764766439607784</v>
       </c>
       <c r="E465" t="n">
         <v>29</v>
@@ -12403,15 +12403,15 @@
         <v>30</v>
       </c>
       <c r="B466" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>current_phase_a_band_1_0_100hz_peak_freq_variance</t>
+          <t>current_phase_a_spectral_flatness</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0.002499019827606638</v>
+        <v>0.01336761396878563</v>
       </c>
       <c r="E466" t="n">
         <v>30</v>

--- a/notebooks/test_output/incremental_shap_20hz.xlsx
+++ b/notebooks/test_output/incremental_shap_20hz.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.85</v>
+        <v>0.7895833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-13 18:44:02</t>
+          <t>2025-10-29 13:20:10</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75625</v>
+        <v>0.7375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03903123748998999</v>
+        <v>0.03047653924651624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71875</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -608,23 +608,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.784375</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02688226645950821</v>
+        <v>0.02411632688081296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02812500000000007</v>
+        <v>0.03541666666666665</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -633,19 +633,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.7312500000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01711632992203644</v>
+        <v>0.03919768275463913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.765625</v>
+        <v>0.8020833333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03437500000000004</v>
+        <v>-0.04166666666666663</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,23 +658,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.80625</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02119478119726647</v>
+        <v>0.02901747557746689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84375</v>
+        <v>0.8229166666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05625000000000002</v>
+        <v>0.05833333333333324</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -683,23 +683,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7875</v>
+        <v>0.74375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0125</v>
+        <v>0.02990145853001524</v>
       </c>
       <c r="D6" t="n">
-        <v>0.796875</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.765625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01875000000000004</v>
+        <v>-0.04583333333333328</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -708,23 +708,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.809375</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0318688719599549</v>
+        <v>0.02041241452319315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.765625</v>
+        <v>0.71875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02187499999999998</v>
+        <v>0.002083333333333326</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -733,23 +733,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.834375</v>
+        <v>0.7312500000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007654655446197431</v>
+        <v>0.025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02500000000000002</v>
+        <v>-0.01458333333333328</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -758,23 +758,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.821875</v>
+        <v>0.7354166666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.03875224007862142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01249999999999996</v>
+        <v>0.004166666666666541</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8125</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03563048203434806</v>
+        <v>0.02144922946038959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.859375</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.75</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.009375000000000022</v>
+        <v>-0.002083333333333326</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.828125</v>
+        <v>0.7270833333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02209708691207961</v>
+        <v>0.02585348676248097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.859375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.015625</v>
+        <v>-0.006249999999999867</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -833,23 +833,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.815625</v>
+        <v>0.7229166666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03029799910885206</v>
+        <v>0.02041241452319319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.875</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01249999999999996</v>
+        <v>-0.004166666666666763</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -858,23 +858,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.81875</v>
+        <v>0.7125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02119478119726646</v>
+        <v>0.03397813839645855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003124999999999933</v>
+        <v>-0.01041666666666663</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -883,23 +883,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8125</v>
+        <v>0.7187500000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03277527650531724</v>
+        <v>0.03227486121839515</v>
       </c>
       <c r="D14" t="n">
-        <v>0.859375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.78125</v>
+        <v>0.6875</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.006249999999999978</v>
+        <v>0.006250000000000089</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.828125</v>
+        <v>0.73125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009882117688026186</v>
+        <v>0.01214781644759438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.015625</v>
+        <v>0.01249999999999984</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_kurt</t>
         </is>
       </c>
     </row>
@@ -933,23 +933,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.81875</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.05245699296672572</v>
       </c>
       <c r="D16" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.796875</v>
+        <v>0.65625</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009375000000000022</v>
+        <v>-0.01458333333333328</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.809375</v>
+        <v>0.7166666666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03029799910885206</v>
+        <v>0.03632415786283895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009375000000000022</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -983,23 +983,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.821875</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.03267580654449608</v>
       </c>
       <c r="D18" t="n">
-        <v>0.84375</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01250000000000007</v>
+        <v>-0.01249999999999996</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -1008,23 +1008,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.81875</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02538762001448738</v>
+        <v>0.03448530282759762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.78125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.003125000000000044</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.821875</v>
+        <v>0.7125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02119478119726646</v>
+        <v>0.03584302194601097</v>
       </c>
       <c r="D20" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003125000000000044</v>
+        <v>-0.008333333333333304</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -1058,23 +1058,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.81875</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02119478119726646</v>
+        <v>0.03523236359434951</v>
       </c>
       <c r="D21" t="n">
-        <v>0.84375</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003125000000000044</v>
+        <v>-0.008333333333333415</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -1083,19 +1083,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.796875</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04074501503251655</v>
+        <v>0.04732423621500229</v>
       </c>
       <c r="D22" t="n">
-        <v>0.859375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02187499999999998</v>
+        <v>-0.002083333333333215</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1108,23 +1108,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.81875</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02119478119726646</v>
+        <v>0.04249182927993986</v>
       </c>
       <c r="D23" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="E23" t="n">
-        <v>0.78125</v>
+        <v>0.65625</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02187499999999998</v>
+        <v>0.002083333333333326</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -1133,23 +1133,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.79375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03617449032121945</v>
+        <v>0.04841229182759271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.84375</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.734375</v>
+        <v>0.625</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.03750000000000009</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -1158,23 +1158,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.796875</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01976423537605237</v>
+        <v>0.05496210815947052</v>
       </c>
       <c r="D25" t="n">
-        <v>0.828125</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>0.78125</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003125000000000044</v>
+        <v>-0.006249999999999978</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -1183,23 +1183,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.81875</v>
+        <v>0.70625</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.03807430600520222</v>
       </c>
       <c r="D26" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02187499999999998</v>
+        <v>0.04583333333333339</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -1208,23 +1208,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.80625</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0350780380010057</v>
+        <v>0.02319901817845842</v>
       </c>
       <c r="D27" t="n">
-        <v>0.84375</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E27" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01249999999999996</v>
+        <v>-0.01041666666666674</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -1233,23 +1233,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.85</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02119478119726647</v>
+        <v>0.05295110427974515</v>
       </c>
       <c r="D28" t="n">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8125</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04374999999999996</v>
+        <v>0.008333333333333304</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -1258,23 +1258,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.80625</v>
+        <v>0.7</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02898005779842408</v>
+        <v>0.03448530282759758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.84375</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E29" t="n">
-        <v>0.765625</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.04374999999999996</v>
+        <v>-0.004166666666666652</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -1283,23 +1283,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.815625</v>
+        <v>0.6791666666666666</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0375</v>
+        <v>0.03448530282759758</v>
       </c>
       <c r="D30" t="n">
-        <v>0.859375</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>0.765625</v>
+        <v>0.625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.02083333333333337</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_peak_density</t>
         </is>
       </c>
     </row>
@@ -1308,23 +1308,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.825</v>
+        <v>0.6958333333333334</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03479852726768763</v>
+        <v>0.03448530282759758</v>
       </c>
       <c r="D31" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>0.796875</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="F31" t="n">
-        <v>0.009374999999999911</v>
+        <v>0.01666666666666683</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6">
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="8">
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="9">
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.828125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="10">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.78125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="12">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.765625</v>
+        <v>0.8020833333333334</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.765625</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="15">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="16">
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="17">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8125</v>
+        <v>0.8229166666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.84375</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="21">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.765625</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="23">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.796875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="26">
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="27">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="28">
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.859375</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="31">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.765625</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="32">
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.84375</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="33">
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="35">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="36">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="38">
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="41">
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="42">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="43">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.859375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="45">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="49">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0.859375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="50">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="51">
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="53">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="54">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="55">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="56">
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="57">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="58">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="59">
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="61">
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="62">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.78125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.796875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="64">
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.859375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="65">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="66">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="67">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.828125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="68">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="69">
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="70">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="71">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.828125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="72">
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796875</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="74">
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="75">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="76">
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="78">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.796875</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="79">
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.84375</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="80">
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.84375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="81">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="82">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="83">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.796875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="84">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="85">
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="86">
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="87">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.828125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="88">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="89">
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.84375</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="90">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="91">
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="92">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="93">
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="94">
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.84375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="95">
@@ -2395,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="96">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.828125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="97">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="98">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="99">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="100">
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.828125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="103">
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.765625</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="104">
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.78125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="105">
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.859375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="106">
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="107">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="108">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8125</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="109">
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="110">
@@ -2560,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.828125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="111">
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.78125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="112">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="113">
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.78125</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="115">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="116">
@@ -2626,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.734375</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="117">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="118">
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8125</v>
+        <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="119">
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.78125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="120">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.828125</v>
+        <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="121">
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.78125</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="122">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="123">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="124">
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="125">
@@ -2725,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="126">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.828125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="127">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="128">
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="129">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.84375</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="130">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>0.84375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="131">
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.765625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="132">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="133">
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="134">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="135">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.875</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="136">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.859375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="137">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="138">
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.78125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="139">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="140">
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.84375</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="141">
@@ -2901,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="142">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.796875</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="143">
@@ -2923,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="144">
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.859375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="145">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>0.859375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="146">
@@ -2956,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="147">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.859375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148">
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="149">
@@ -2989,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="150">
@@ -3000,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.796875</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="151">
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -3076,14 +3076,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3108,14 +3108,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3124,14 +3124,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -3140,14 +3140,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -3156,14 +3156,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -3172,14 +3172,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -3188,14 +3188,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -3220,14 +3220,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3236,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3268,14 +3268,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_kurt</t>
         </is>
       </c>
     </row>
@@ -3284,14 +3284,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -3300,14 +3300,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -3316,14 +3316,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -3332,14 +3332,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -3348,14 +3348,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -3364,14 +3364,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
@@ -3396,14 +3396,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -3412,14 +3412,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -3428,14 +3428,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -3444,14 +3444,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -3460,14 +3460,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -3476,14 +3476,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -3492,14 +3492,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -3508,14 +3508,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_peak_density</t>
         </is>
       </c>
     </row>
@@ -3524,14 +3524,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/incremental_shap_20hz.xlsx
+++ b/notebooks/test_output/incremental_shap_20hz.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7895833333333333</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:20:10</t>
+          <t>2025-10-30 19:03:33</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7375</v>
+        <v>0.85</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03047653924651624</v>
+        <v>0.02041241452319316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -608,23 +608,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7729166666666667</v>
+        <v>0.9472222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02411632688081296</v>
+        <v>0.01360827634879543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03541666666666665</v>
+        <v>0.09722222222222221</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
     </row>
@@ -633,19 +633,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7312500000000001</v>
+        <v>0.95</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03919768275463913</v>
+        <v>0.02576005137637697</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6875</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04166666666666663</v>
+        <v>0.002777777777777768</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,23 +658,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7895833333333333</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02901747557746689</v>
+        <v>0.04175915660659142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8229166666666666</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05833333333333324</v>
+        <v>-0.01111111111111107</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -683,23 +683,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.74375</v>
+        <v>0.9277777777777778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02990145853001524</v>
+        <v>0.03447131568330796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04583333333333328</v>
+        <v>-0.01111111111111107</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -708,23 +708,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.9472222222222223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02041241452319315</v>
+        <v>0.01842569327975224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71875</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002083333333333326</v>
+        <v>0.01944444444444449</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>load_under_load</t>
         </is>
       </c>
     </row>
@@ -733,23 +733,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7312500000000001</v>
+        <v>0.9361111111111111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.025</v>
+        <v>0.03356401659331827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01458333333333328</v>
+        <v>-0.01111111111111118</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -758,23 +758,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7354166666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03875224007862142</v>
+        <v>0.03215510250775064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004166666666666541</v>
+        <v>-0.002777777777777768</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02144922946038959</v>
+        <v>0.02324055629261323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.002083333333333326</v>
+        <v>0.01111111111111107</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7270833333333334</v>
+        <v>0.9277777777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02585348676248097</v>
+        <v>0.03447131568330796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.006249999999999867</v>
+        <v>-0.01666666666666661</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -833,23 +833,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7229166666666667</v>
+        <v>0.9055555555555556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02041241452319319</v>
+        <v>0.05152010275275389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.004166666666666763</v>
+        <v>-0.02222222222222225</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -858,23 +858,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7125</v>
+        <v>0.9083333333333332</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03397813839645855</v>
+        <v>0.05241100628920336</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01041666666666663</v>
+        <v>0.002777777777777657</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -883,23 +883,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7187500000000001</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03227486121839515</v>
+        <v>0.0477906959280146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006250000000000089</v>
+        <v>0.002777777777777879</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.73125</v>
+        <v>0.9055555555555556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01214781644759438</v>
+        <v>0.0522635770061855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.71875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01249999999999984</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -933,23 +933,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05245699296672572</v>
+        <v>0.0534316223935315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.65625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01458333333333328</v>
+        <v>-0.01666666666666661</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7166666666666666</v>
+        <v>0.8833333333333334</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03632415786283895</v>
+        <v>0.05386310952684808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.78125</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -983,23 +983,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7041666666666666</v>
+        <v>0.8916666666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03267580654449608</v>
+        <v>0.04598040377013013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01249999999999996</v>
+        <v>0.008333333333333193</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -1008,23 +1008,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.8916666666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03448530282759762</v>
+        <v>0.05076574134026962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01666666666666672</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7125</v>
+        <v>0.8972222222222221</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03584302194601097</v>
+        <v>0.046976484792466</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008333333333333304</v>
+        <v>0.005555555555555536</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -1058,23 +1058,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7041666666666666</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03523236359434951</v>
+        <v>0.04648111258522643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008333333333333415</v>
+        <v>-0.008333333333333193</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7020833333333334</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04732423621500229</v>
+        <v>0.03621779114001471</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.625</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002083333333333215</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7041666666666667</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04249182927993986</v>
+        <v>0.03726779962499651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.78125</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.65625</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002083333333333326</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -1133,23 +1133,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8722222222222223</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04841229182759271</v>
+        <v>0.04843221048378524</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03750000000000009</v>
+        <v>-0.01666666666666661</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -1158,23 +1158,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6604166666666667</v>
+        <v>0.8888888888888887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05496210815947052</v>
+        <v>0.03828902431136171</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006249999999999978</v>
+        <v>0.01666666666666639</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -1183,23 +1183,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.70625</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03807430600520222</v>
+        <v>0.05314201797141387</v>
       </c>
       <c r="D26" t="n">
-        <v>0.78125</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04583333333333339</v>
+        <v>-0.008333333333333193</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -1208,23 +1208,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6958333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02319901817845842</v>
+        <v>0.04890782461571948</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01041666666666674</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -1233,23 +1233,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7041666666666666</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05295110427974515</v>
+        <v>0.04530418452861137</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.008333333333333304</v>
+        <v>0.005555555555555536</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -1258,23 +1258,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7</v>
+        <v>0.8916666666666666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03448530282759758</v>
+        <v>0.04249182927993987</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.004166666666666652</v>
+        <v>0.01111111111111107</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>
@@ -1283,23 +1283,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03448530282759758</v>
+        <v>0.05343162239353152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.625</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.02083333333333337</v>
+        <v>-0.002777777777777657</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -1308,23 +1308,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6958333333333334</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03448530282759758</v>
+        <v>0.05597067133224967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.75</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01666666666666683</v>
+        <v>-0.02222222222222237</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="3">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="4">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78125</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.78125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="8">
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="9">
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="11">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="12">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9861111111111112</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6875</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="15">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71875</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="16">
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="17">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8229166666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="21">
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="24">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.71875</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="26">
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="27">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="28">
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.75</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.71875</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="31">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="32">
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="33">
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.75</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="34">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="35">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.71875</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="36">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="37">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="38">
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="40">
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="41">
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="42">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="45">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="49">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="50">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0.71875</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="51">
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="53">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="54">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="55">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="56">
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="57">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="58">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="59">
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="60">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.71875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="62">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="64">
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="65">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="67">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="68">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="69">
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.71875</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="70">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="72">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8125</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="73">
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.65625</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="74">
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="75">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="76">
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.71875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.78125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="78">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="79">
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="80">
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="81">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="82">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="83">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="84">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="85">
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="86">
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="87">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="88">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="89">
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="90">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91">
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.71875</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="92">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="93">
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="94">
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="95">
@@ -2395,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="97">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="98">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="100">
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101">
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="103">
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="104">
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="105">
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.625</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="106">
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.71875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="107">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.65625</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="109">
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="110">
@@ -2560,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111">
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="112">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="113">
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.625</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="115">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.65625</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="116">
@@ -2626,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.65625</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="117">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="118">
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119">
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="120">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121">
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="122">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.78125</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="123">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="124">
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="125">
@@ -2725,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="126">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="127">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="128">
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="129">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="130">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131">
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="132">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="133">
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="134">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="135">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="136">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="137">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="138">
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="140">
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141">
@@ -2901,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="142">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="143">
@@ -2923,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="144">
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="145">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>0.625</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="146">
@@ -2956,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="147">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.75</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="148">
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="149">
@@ -2989,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="150">
@@ -3000,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="151">
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -3076,14 +3076,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3108,14 +3108,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -3124,14 +3124,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -3140,14 +3140,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>load_under_load</t>
         </is>
       </c>
     </row>
@@ -3156,14 +3156,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -3172,14 +3172,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -3188,14 +3188,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -3204,14 +3204,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3220,14 +3220,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3236,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -3252,14 +3252,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -3268,14 +3268,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -3284,14 +3284,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -3300,14 +3300,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -3316,14 +3316,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -3332,14 +3332,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -3348,14 +3348,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -3364,14 +3364,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -3396,14 +3396,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3412,14 +3412,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -3428,14 +3428,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -3460,14 +3460,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -3476,14 +3476,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -3492,14 +3492,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>
@@ -3508,14 +3508,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -3524,14 +3524,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
